--- a/tests/artifact/data/UI-GSTandVATValidationsInPurchaseSaleOrderPage.data.xlsx
+++ b/tests/artifact/data/UI-GSTandVATValidationsInPurchaseSaleOrderPage.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9480" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="173">
   <si>
     <t>login.screen</t>
   </si>
@@ -52,7 +52,7 @@
     <t>org.open</t>
   </si>
   <si>
-    <t>//button[text()=' Open ']</t>
+    <t>(//button[text()=' Open '])[2]</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -502,29 +502,71 @@
     <t>//div[@id='button-wrapper']/button[1]</t>
   </si>
   <si>
-    <t>wait.five.seconds</t>
-  </si>
-  <si>
-    <t>5000</t>
+    <t>wait.one.second</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>wait.ten.seconds</t>
   </si>
   <si>
     <t>10000</t>
+  </si>
+  <si>
+    <t>input.sale.order</t>
+  </si>
+  <si>
+    <t>//*[@role='option']</t>
+  </si>
+  <si>
+    <t>create.purchase.success</t>
+  </si>
+  <si>
+    <t>//*[text()="Create Purchase Order Successfull!"]</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Retail Customer (Default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">success.sales.order.message </t>
+  </si>
+  <si>
+    <t>Create Sale Order Successfull!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">success.purchase.order.message </t>
+  </si>
+  <si>
+    <t>Create Purchase Order Successfull!</t>
+  </si>
+  <si>
+    <t>Name.supplier</t>
+  </si>
+  <si>
+    <t>Retail Supplier (Default)</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>1500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,12 +597,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF202124"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -570,15 +610,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,45 +696,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -639,39 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +727,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -700,7 +741,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,12 +763,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -733,13 +823,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,145 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,45 +968,6 @@
       </top>
       <bottom style="hair">
         <color theme="6" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,6 +1005,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1007,6 +1046,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,152 +1074,152 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1190,55 +1238,58 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1603,14 +1654,14 @@
   <sheetPr/>
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.66428571428571" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="112.416666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.6642857142857" customWidth="1"/>
+    <col min="2" max="2" width="112.414285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2277,26 +2328,61 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1"/>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1"/>
